--- a/biology/Zoologie/Conus_ceylanensis/Conus_ceylanensis.xlsx
+++ b/biology/Zoologie/Conus_ceylanensis/Conus_ceylanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus ceylanensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus ceylanensis a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[1],[2].
-Synonymes
-Conus (Harmoniconus) ceylanensis Hwass, 1792 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus ceylanensis a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_ceylanensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ceylanensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Harmoniconus) ceylanensis Hwass, 1792 · appellation alternative
 Conus ceylonicus G. Nevill &amp; H. Nevill, 1875 · non accepté</t>
         </is>
       </c>
